--- a/Data/Entities/OpenNGS/OpenNGS.Character.xlsx
+++ b/Data/Entities/OpenNGS/OpenNGS.Character.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\EE\OpenNGS\packageproject\Data\Entities\OpenNGS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\EE\OpenNGS\ngs-packages\Data\Entities\OpenNGS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99A7305E-585B-4C6D-A99B-16E6EDE2B01C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01073A5A-9551-4FE4-BA87-1C6D123953B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Models" sheetId="9" r:id="rId1"/>
-    <sheet name="DB" sheetId="14" r:id="rId2"/>
-    <sheet name="Service" sheetId="12" r:id="rId3"/>
-    <sheet name="Common" sheetId="13" r:id="rId4"/>
+    <sheet name="OpenNGS.Character.DB" sheetId="14" r:id="rId2"/>
+    <sheet name="OpenNGS.Character.Service" sheetId="12" r:id="rId3"/>
+    <sheet name="OpenNGS.Character.Common" sheetId="13" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="B">#REF!</definedName>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="163">
   <si>
     <t>Package</t>
   </si>
@@ -58,9 +58,6 @@
     <t>TableType</t>
   </si>
   <si>
-    <t>OpenNGS.Character</t>
-  </si>
-  <si>
     <t>CharacterState</t>
   </si>
   <si>
@@ -497,6 +494,67 @@
   </si>
   <si>
     <t>Attributes</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Common</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>OpenNGS.Character.Common</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>OpenNGS.Character</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.Common</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>DB</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>OpenNGS.Character</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.DB</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Service</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>OpenNGS.Character</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.Service</t>
+    </r>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -507,7 +565,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -532,6 +590,12 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -604,7 +668,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -627,6 +691,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3464,8 +3531,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J20"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" x14ac:dyDescent="0.25"/>
@@ -3518,445 +3585,445 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="C2" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" s="7" t="s">
+      <c r="D3" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="J4" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="7" t="s">
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="7" t="s">
+      <c r="E5" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" s="7" t="s">
+      <c r="F5" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="J5" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="J3" s="7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="7" t="s">
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="J7" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="J4" s="7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="7" t="s">
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="J8" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="I6" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="7" t="s">
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" s="7" t="s">
+      <c r="D9" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="F7" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" s="7" t="s">
+      <c r="J9" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="B10" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="F9" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="J9" s="7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="7" t="s">
+      <c r="C10" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" s="7" t="s">
+      <c r="F10" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="B11" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="F10" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="7" t="s">
+      <c r="C11" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E11" s="7" t="s">
+      <c r="F11" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="B12" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="F11" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="7" t="s">
+      <c r="C12" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E12" s="7" t="s">
+      <c r="F12" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="B13" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="F12" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="7" t="s">
+      <c r="C13" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="C13" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E13" s="7" t="s">
+      <c r="F13" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="B14" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="F13" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" s="7" t="s">
+      <c r="C14" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="C14" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E14" s="7" t="s">
+      <c r="F14" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="B15" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="F14" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B15" s="7" t="s">
+      <c r="C15" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E15" s="7" t="s">
+      <c r="F15" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="B16" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="F15" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="J15" s="7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B16" s="7" t="s">
+      <c r="C16" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C16" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E16" s="7" t="s">
+      <c r="F16" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="B17" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="F16" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B17" s="7" t="s">
+      <c r="C17" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E17" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="C17" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E17" s="7" t="s">
+      <c r="F17" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="B18" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="F17" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B18" s="7" t="s">
+      <c r="C18" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E18" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="C18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E18" s="7" t="s">
+      <c r="F18" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="B19" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="F18" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B19" s="7" t="s">
+      <c r="C19" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E19" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="C19" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E19" s="7" t="s">
+      <c r="F19" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="B20" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="F19" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B20" s="7" t="s">
+      <c r="C20" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E20" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="C20" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E20" s="7" t="s">
+      <c r="F20" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="F20" s="7" t="s">
-        <v>59</v>
-      </c>
       <c r="J20" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -3985,7 +4052,7 @@
   <sheetData>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -4004,10 +4071,10 @@
         <v>4</v>
       </c>
       <c r="D5" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>61</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>5</v>
@@ -4015,362 +4082,362 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>64</v>
       </c>
       <c r="D6" s="1">
         <v>1</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D7" s="1">
         <v>2</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>68</v>
       </c>
       <c r="D8" s="1">
         <v>3</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>70</v>
       </c>
       <c r="D9" s="1">
         <v>4</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>73</v>
       </c>
       <c r="D10" s="1">
         <v>5</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>75</v>
       </c>
       <c r="D11" s="1">
         <v>6</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>77</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>78</v>
       </c>
       <c r="D12" s="1">
         <v>7</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="C13" s="1" t="s">
         <v>80</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>81</v>
       </c>
       <c r="D13" s="1">
         <v>8</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>83</v>
       </c>
       <c r="D14" s="1">
         <v>9</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>84</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>85</v>
       </c>
       <c r="D15" s="1">
         <v>10</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>86</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>87</v>
       </c>
       <c r="D16" s="1">
         <v>11</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>88</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>89</v>
       </c>
       <c r="D17" s="1">
         <v>12</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="C18" s="1" t="s">
         <v>91</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>92</v>
       </c>
       <c r="D18" s="1">
         <v>13</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>94</v>
-      </c>
       <c r="D19" s="1">
         <v>14</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>95</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>96</v>
       </c>
       <c r="D20" s="1">
         <v>15</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>97</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>98</v>
       </c>
       <c r="D21" s="1">
         <v>16</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="C22" s="1" t="s">
         <v>100</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>101</v>
       </c>
       <c r="D22" s="1">
         <v>17</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>102</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>103</v>
       </c>
       <c r="D23" s="1">
         <v>18</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -4391,7 +4458,7 @@
   <dimension ref="A3:F83"/>
   <sheetViews>
     <sheetView topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="A84" sqref="A84:F87"/>
+      <selection activeCell="C93" sqref="C93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4406,7 +4473,7 @@
   <sheetData>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -4420,10 +4487,10 @@
         <v>4</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>61</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>5</v>
@@ -4431,22 +4498,22 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>105</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>106</v>
       </c>
       <c r="D5" s="2">
         <v>1</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -4459,7 +4526,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -4473,10 +4540,10 @@
         <v>4</v>
       </c>
       <c r="D9" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>61</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>5</v>
@@ -4484,40 +4551,40 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>107</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>108</v>
       </c>
       <c r="D10" s="2">
         <v>1</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="C11" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>111</v>
       </c>
       <c r="D11" s="2">
         <v>2</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -4538,7 +4605,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -4552,10 +4619,10 @@
         <v>4</v>
       </c>
       <c r="D15" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>61</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>5</v>
@@ -4563,58 +4630,58 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D16" s="2">
         <v>1</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>113</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>114</v>
       </c>
       <c r="D17" s="2">
         <v>2</v>
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D18" s="2">
         <v>3</v>
       </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -4627,7 +4694,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -4641,10 +4708,10 @@
         <v>4</v>
       </c>
       <c r="D22" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E22" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>61</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>5</v>
@@ -4652,27 +4719,27 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C23" s="4" t="s">
         <v>107</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>108</v>
       </c>
       <c r="D23" s="5">
         <v>1</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -4686,10 +4753,10 @@
         <v>4</v>
       </c>
       <c r="D28" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E28" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>61</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>5</v>
@@ -4697,127 +4764,127 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B29" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>64</v>
       </c>
       <c r="D29" s="2">
         <v>1</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D30" s="2">
         <v>2</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C31" s="1" t="s">
         <v>116</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>117</v>
       </c>
       <c r="D31" s="2">
         <v>3</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C32" s="1" t="s">
         <v>118</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>119</v>
       </c>
       <c r="D32" s="2">
         <v>4</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D33" s="2">
         <v>5</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D34" s="2">
         <v>6</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -4831,10 +4898,10 @@
         <v>4</v>
       </c>
       <c r="D37" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E37" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>61</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>5</v>
@@ -4842,40 +4909,40 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C38" s="4" t="s">
         <v>107</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>108</v>
       </c>
       <c r="D38" s="2">
         <v>1</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D39" s="2">
         <v>2</v>
       </c>
       <c r="E39" s="1"/>
       <c r="F39" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -4904,7 +4971,7 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -4918,10 +4985,10 @@
         <v>4</v>
       </c>
       <c r="D44" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E44" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>61</v>
       </c>
       <c r="F44" s="1" t="s">
         <v>5</v>
@@ -4929,27 +4996,27 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D45" s="2">
         <v>1</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -4963,10 +5030,10 @@
         <v>4</v>
       </c>
       <c r="D48" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E48" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>61</v>
       </c>
       <c r="F48" s="1" t="s">
         <v>5</v>
@@ -4974,40 +5041,40 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C49" s="4" t="s">
         <v>107</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>108</v>
       </c>
       <c r="D49" s="2">
         <v>1</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B50" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C50" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>111</v>
       </c>
       <c r="D50" s="2">
         <v>2</v>
       </c>
       <c r="E50" s="1"/>
       <c r="F50" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -5028,7 +5095,7 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -5042,10 +5109,10 @@
         <v>4</v>
       </c>
       <c r="D55" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E55" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>61</v>
       </c>
       <c r="F55" s="1" t="s">
         <v>5</v>
@@ -5053,27 +5120,27 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D56" s="2">
         <v>1</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
@@ -5087,10 +5154,10 @@
         <v>4</v>
       </c>
       <c r="D59" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E59" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="E59" s="1" t="s">
-        <v>61</v>
       </c>
       <c r="F59" s="1" t="s">
         <v>5</v>
@@ -5098,22 +5165,22 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C60" s="4" t="s">
         <v>107</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C60" s="4" t="s">
-        <v>108</v>
       </c>
       <c r="D60" s="2">
         <v>1</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
@@ -5134,7 +5201,7 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
@@ -5148,10 +5215,10 @@
         <v>4</v>
       </c>
       <c r="D64" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E64" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="E64" s="1" t="s">
-        <v>61</v>
       </c>
       <c r="F64" s="1" t="s">
         <v>5</v>
@@ -5159,27 +5226,27 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D65" s="2">
         <v>1</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
@@ -5193,10 +5260,10 @@
         <v>4</v>
       </c>
       <c r="D68" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E68" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="E68" s="1" t="s">
-        <v>61</v>
       </c>
       <c r="F68" s="1" t="s">
         <v>5</v>
@@ -5204,47 +5271,47 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C69" s="1" t="s">
         <v>107</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>108</v>
       </c>
       <c r="D69" s="1">
         <v>1</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D70" s="1">
         <v>2</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B74" s="1"/>
       <c r="C74" s="2"/>
@@ -5254,19 +5321,19 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C75" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D75" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="D75" s="2" t="s">
-        <v>128</v>
-      </c>
       <c r="E75" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F75" s="1" t="s">
         <v>5</v>
@@ -5274,110 +5341,110 @@
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B76" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="B76" s="1" t="s">
-        <v>130</v>
-      </c>
       <c r="C76" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E76" s="1"/>
       <c r="F76" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B77" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="B77" s="1" t="s">
-        <v>132</v>
-      </c>
       <c r="C77" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E77" s="1"/>
       <c r="F77" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B78" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="B78" s="1" t="s">
-        <v>134</v>
-      </c>
       <c r="C78" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E78" s="1"/>
       <c r="F78" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B79" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="B79" s="1" t="s">
-        <v>136</v>
-      </c>
       <c r="C79" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E79" s="1"/>
       <c r="F79" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B80" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="B80" s="1" t="s">
-        <v>138</v>
-      </c>
       <c r="C80" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E80" s="1"/>
       <c r="F80" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B81" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="B81" s="1" t="s">
-        <v>140</v>
-      </c>
       <c r="C81" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E81" s="1"/>
       <c r="F81" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
@@ -5518,8 +5585,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A2:G39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5535,7 +5602,7 @@
   <sheetData>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -5554,10 +5621,10 @@
         <v>4</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>61</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>5</v>
@@ -5565,28 +5632,28 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <v>0</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="2">
@@ -5594,15 +5661,15 @@
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="2">
@@ -5610,15 +5677,15 @@
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="2">
@@ -5626,7 +5693,7 @@
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -5639,7 +5706,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -5658,10 +5725,10 @@
         <v>4</v>
       </c>
       <c r="D12" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>61</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>5</v>
@@ -5670,190 +5737,190 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>64</v>
       </c>
       <c r="D13" s="1">
         <v>1</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G13" s="1"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D14" s="1">
         <v>2</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>80</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>81</v>
       </c>
       <c r="D15" s="1">
         <v>3</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G15" s="1"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D16" s="1">
         <v>4</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G16" s="1"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D17" s="1">
         <v>5</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G17" s="1"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>70</v>
       </c>
       <c r="D18" s="1">
         <v>6</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G18" s="1"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>93</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>94</v>
       </c>
       <c r="D19" s="1">
         <v>7</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G19" s="1"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>97</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>98</v>
       </c>
       <c r="D20" s="1">
         <v>8</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G20" s="1"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D21" s="1">
         <v>9</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G21" s="1"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D22" s="1">
         <v>10</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G22" s="1"/>
     </row>
@@ -5875,7 +5942,7 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -5894,10 +5961,10 @@
         <v>4</v>
       </c>
       <c r="D26" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E26" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>61</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>5</v>
@@ -5905,43 +5972,43 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D27" s="1">
         <v>1</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>152</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>153</v>
       </c>
       <c r="D28" s="1">
         <v>2</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -5960,10 +6027,10 @@
         <v>4</v>
       </c>
       <c r="D32" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E32" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>61</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>5</v>
@@ -5971,43 +6038,43 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="C33" s="1" t="s">
         <v>100</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>101</v>
       </c>
       <c r="D33" s="1">
         <v>1</v>
       </c>
       <c r="E33" s="1"/>
       <c r="F33" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C34" s="1" t="s">
         <v>102</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>103</v>
       </c>
       <c r="D34" s="1">
         <v>2</v>
       </c>
       <c r="E34" s="1"/>
       <c r="F34" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -6021,10 +6088,10 @@
         <v>4</v>
       </c>
       <c r="D37" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E37" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>61</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>5</v>
@@ -6032,42 +6099,42 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C38" s="1" t="s">
         <v>107</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>108</v>
       </c>
       <c r="D38" s="1">
         <v>1</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B39" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="B39" s="1" t="s">
-        <v>155</v>
-      </c>
       <c r="C39" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D39" s="1">
         <v>2</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
